--- a/data/long_bre/P23_1-Urba-long_bre.xlsx
+++ b/data/long_bre/P23_1-Urba-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +540,16 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +566,32 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,17</t>
+          <t>-5,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-24,49%</t>
+          <t>5,79</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,93%</t>
+          <t>1,71</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-22,1%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-8,45%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>24,98%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6,89%</t>
         </is>
       </c>
     </row>
@@ -609,22 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,99; -1,2</t>
+          <t>-11,74; 0,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 3,68</t>
+          <t>-9,96; 3,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-42,98; -5,03</t>
+          <t>-0,48; 13,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-28,39; 15,93</t>
+          <t>-4,97; 8,53</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-41,22; 1,4</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-30,01; 14,68</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-3,05; 69,66</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-17,76; 40,71</t>
         </is>
       </c>
     </row>
@@ -632,27 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,76</t>
+          <t>9,15</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>-5,92</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,49%</t>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>22,18%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-0,14%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-11,76%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
         </is>
       </c>
     </row>
@@ -665,22 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 16,04</t>
+          <t>1,72; 16,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 5,96</t>
+          <t>-6,38; 7,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,08; 42,55</t>
+          <t>-15,15; 2,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 13,29</t>
+          <t>-7,97; 8,96</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3,54; 45,76</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-12,1; 17,42</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-27,06; 4,37</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-16,02; 22,64</t>
         </is>
       </c>
     </row>
@@ -688,27 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,59</t>
+          <t>-3,75</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,04</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,85%</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>-2,43</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-10,93%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>9,76%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,49%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-8,12%</t>
         </is>
       </c>
     </row>
@@ -721,54 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 4,69</t>
+          <t>-11,25; 2,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 9,43</t>
+          <t>-3,28; 7,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-26,27; 16,55</t>
+          <t>-7,14; 7,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 44,79</t>
+          <t>-9,15; 5,43</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-28,19; 8,18</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-11,87; 37,76</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-23,84; 35,14</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-26,65; 20,06</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,91</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-18,65%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,44; 2,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 7,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,1; 13,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,83; 30,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,39</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-7,13%</t>
+          <t>-2,54</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-12,48%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3,05%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,16%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-9,98%</t>
         </is>
       </c>
     </row>
@@ -837,22 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 9,49</t>
+          <t>-11,03; 4,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 3,07</t>
+          <t>-5,41; 7,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,52; 26,62</t>
+          <t>-5,98; 8,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-21,47; 7,43</t>
+          <t>-14,74; 10,42</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-38,43; 21,56</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-16,53; 28,4</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-19,42; 39,25</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-45,8; 53,31</t>
         </is>
       </c>
     </row>
@@ -860,27 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>-3,98</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>-13,02</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0,39%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-8,36%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-2,45%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-24,26%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 11,88</t>
+          <t>-7,8; 8,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 8,3</t>
+          <t>-10,99; 2,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 41,33</t>
+          <t>-10,26; 7,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,86; 41,26</t>
+          <t>-29,27; 2,04</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-16,58; 22,06</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-20,87; 7,04</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-18,84; 16,62</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-47,43; 5,63</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-13,84</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-45,86%</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,07%</t>
+          <t>15,56</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>8,6%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>13,53%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,71%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>74,41%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-28,28; -0,39</t>
+          <t>-4,75; 10,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,22; 11,0</t>
+          <t>-3,04; 8,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-70,71; -0,92</t>
+          <t>-7,02; 6,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-39,82; 52,17</t>
+          <t>3,16; 29,04</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-12,84; 36,32</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-11,26; 45,43</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-25,54; 36,13</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>7,97; 187,03</t>
         </is>
       </c>
     </row>
@@ -976,27 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>13,84</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-5,72</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>40,13%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-12,63%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 29,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-18,91; 7,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 121,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-37,47; 19,09</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-12,08</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>6,03</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,02%</t>
+          <t>-10,62</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>23,91%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-42,54%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1,79%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-27,99%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-16,66; 14,1</t>
+          <t>-26,06; 1,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 17,43</t>
+          <t>-13,35; 12,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-37,63; 52,08</t>
+          <t>-36,53; 8,95</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 91,52</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-69,79; 11,31</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-36,13; 56,67</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-61,85; 43,13</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-6,62</t>
+          <t>14,32</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-6,79</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-25,21%</t>
+          <t>11,37</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-1,91%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>42,0%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-14,79%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>33,92%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-11,63; -1,86</t>
+          <t>-0,89; 27,81</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 3,55</t>
+          <t>-20,48; 6,69</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-39,43; -8,11</t>
+          <t>-8,89; 29,89</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 14,21</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-2,3; 112,8</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-37,79; 18,79</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-20,06; 142,03</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>6,48</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,49</t>
+          <t>6,27</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>15,96%</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-5,14%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>-5,98%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>24,88%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-2,64%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,3; 11,94</t>
+          <t>-20,71; 12,65</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 2,39</t>
+          <t>-6,36; 17,98</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2,96; 31,9</t>
+          <t>-18,9; 16,8</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 5,11</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-42,74; 46,91</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-21,59; 88,34</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-47,74; 95,26</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,34 +1732,449 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 4,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 7,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 14,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 36,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>-5,29</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>-0,81</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>2,05</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-21,25%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>-2,86%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>7,77%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>3,18%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-9,85; -1,07</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-5,68; 3,33</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>-3,17; 7,19</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-5,12; 6,68</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-35,67; -4,8</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-18,44; 13,13</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-10,46; 31,58</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-17,62; 30,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>6,32</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-2,27</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>-2,01</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>-2,47</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>15,52%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-4,7%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-4,19%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-5,22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>1,44; 11,59</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-6,91; 2,18</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-8,11; 4,33</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-10,73; 3,7</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>3,17; 31,41</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-13,57; 4,72</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-15,79; 9,92</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-20,6; 8,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-1,04</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>3,07</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-0,04</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>1,67</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-3,01%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>13,03%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-0,17%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>6,02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-6,72; 3,82</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-0,92; 6,98</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-4,61; 4,76</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-4,12; 8,47</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-17,88; 12,34</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-3,66; 31,89</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-16,51; 20,69</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-13,36; 35,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P23_1-Urba-long_bre.xlsx
+++ b/data/long_bre/P23_1-Urba-long_bre.xlsx
@@ -624,7 +624,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -720,7 +720,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -816,7 +816,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -916,7 +916,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1012,7 +1012,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1108,7 +1108,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1292,7 +1292,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1376,7 +1376,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1560,7 +1560,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1656,7 +1656,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
